--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8704C665-3E07-EE41-8997-646646011624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBD2499-72F9-D840-AA85-3BB3EC694AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FT fuel - Diesel'!$A$1:$K$578</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FT fuel - Diesel'!$A$1:$K$596</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="103">
   <si>
     <t>Activity</t>
   </si>
@@ -335,6 +335,18 @@
   </si>
   <si>
     <t>carbon monoxide, from RWGS</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas, synthetic</t>
+  </si>
+  <si>
+    <t>Adapted from A.E.M. van den Oever, D. Costa, M. Messagie, Prospective life cycle assessment of alternatively fueled heavy-duty trucks, Applied Energy, 2023, https://doi.org/10.1016/j.apenergy.2023.120834. Energy-based allocation between 3 other co-products (diesel, wax and C5-C10 olefins). Allocation key for this co-product: 11%. Post corrected to preserve carbon balance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A.E.M. van den Oever, D. Costa, M. Messagie, Prospective life cycle assessment of alternatively fueled heavy-duty trucks, Applied Energy, 2023, https://doi.org/10.1016/j.apenergy.2023.120834</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation</t>
   </si>
 </sst>
 </file>
@@ -752,16 +764,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K578"/>
+  <dimension ref="A1:K596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="G244" sqref="G244"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
@@ -775,7 +786,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -786,7 +797,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -810,7 +821,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -818,7 +829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -826,7 +837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -1130,7 +1141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="13"/>
       <c r="G24" s="10"/>
@@ -1143,7 +1154,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
@@ -1167,7 +1178,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>3</v>
       </c>
@@ -1175,7 +1186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>5</v>
       </c>
@@ -1183,7 +1194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>10</v>
       </c>
@@ -1487,7 +1498,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="13"/>
       <c r="G46" s="10"/>
@@ -1500,7 +1511,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>7</v>
       </c>
@@ -1524,7 +1535,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>3</v>
       </c>
@@ -1532,7 +1543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>5</v>
       </c>
@@ -1540,7 +1551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>10</v>
       </c>
@@ -1844,7 +1855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
       <c r="B68" s="13"/>
       <c r="G68" s="10"/>
@@ -1857,7 +1868,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>7</v>
       </c>
@@ -1881,7 +1892,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>3</v>
       </c>
@@ -1889,7 +1900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>5</v>
       </c>
@@ -1897,7 +1908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>10</v>
       </c>
@@ -2201,7 +2212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="13"/>
       <c r="G90" s="10"/>
@@ -2230,7 +2241,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>3</v>
       </c>
@@ -2238,7 +2249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>5</v>
       </c>
@@ -2246,7 +2257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>7</v>
       </c>
@@ -2254,7 +2265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>9</v>
       </c>
@@ -2262,7 +2273,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>33</v>
       </c>
@@ -2270,7 +2281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>10</v>
       </c>
@@ -2374,7 +2385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>23</v>
       </c>
@@ -2462,7 +2473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>0</v>
@@ -2487,7 +2498,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>3</v>
       </c>
@@ -2495,7 +2506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>5</v>
       </c>
@@ -2503,7 +2514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>7</v>
       </c>
@@ -2511,7 +2522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>9</v>
       </c>
@@ -2519,7 +2530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>33</v>
       </c>
@@ -2527,7 +2538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>10</v>
       </c>
@@ -2628,7 +2639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>23</v>
       </c>
@@ -2716,7 +2727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="127" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>0</v>
@@ -2741,7 +2752,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>3</v>
       </c>
@@ -2749,7 +2760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>5</v>
       </c>
@@ -2757,7 +2768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>7</v>
       </c>
@@ -2765,7 +2776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>9</v>
       </c>
@@ -2773,7 +2784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>33</v>
       </c>
@@ -2781,7 +2792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>10</v>
       </c>
@@ -2885,7 +2896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>23</v>
       </c>
@@ -2973,7 +2984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="145" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>0</v>
@@ -2998,7 +3009,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
         <v>3</v>
       </c>
@@ -3006,7 +3017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
         <v>5</v>
       </c>
@@ -3014,7 +3025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
         <v>7</v>
       </c>
@@ -3022,7 +3033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
         <v>9</v>
       </c>
@@ -3030,7 +3041,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
         <v>33</v>
       </c>
@@ -3038,7 +3049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>10</v>
       </c>
@@ -3142,7 +3153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
         <v>23</v>
       </c>
@@ -3230,7 +3241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="9"/>
     </row>
     <row r="163" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -3257,7 +3268,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
         <v>3</v>
       </c>
@@ -3265,7 +3276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
         <v>5</v>
       </c>
@@ -3273,7 +3284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
         <v>7</v>
       </c>
@@ -3281,7 +3292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
         <v>9</v>
       </c>
@@ -3289,7 +3300,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
         <v>33</v>
       </c>
@@ -3297,7 +3308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>10</v>
       </c>
@@ -3401,7 +3412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
         <v>23</v>
       </c>
@@ -3489,7 +3500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="180" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="181" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>0</v>
@@ -3514,7 +3525,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
         <v>3</v>
       </c>
@@ -3522,7 +3533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
         <v>5</v>
       </c>
@@ -3530,7 +3541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
         <v>7</v>
       </c>
@@ -3538,7 +3549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>9</v>
       </c>
@@ -3546,7 +3557,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
         <v>33</v>
       </c>
@@ -3554,7 +3565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>10</v>
       </c>
@@ -3655,7 +3666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>23</v>
       </c>
@@ -3743,7 +3754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="198" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="199" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>0</v>
@@ -3768,7 +3779,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
         <v>3</v>
       </c>
@@ -3776,7 +3787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
         <v>5</v>
       </c>
@@ -3784,7 +3795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
         <v>7</v>
       </c>
@@ -3792,7 +3803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
         <v>9</v>
       </c>
@@ -3800,7 +3811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="s">
         <v>33</v>
       </c>
@@ -3808,7 +3819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>10</v>
       </c>
@@ -3912,7 +3923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
         <v>23</v>
       </c>
@@ -4001,13 +4012,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="216" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="217" spans="1:10" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="218" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -4023,10 +4034,10 @@
         <v>2</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
         <v>3</v>
       </c>
@@ -4034,7 +4045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
         <v>5</v>
       </c>
@@ -4042,7 +4053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
         <v>7</v>
       </c>
@@ -4050,28 +4061,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>11</v>
       </c>
@@ -4093,13 +4104,17 @@
       <c r="G226" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="8" t="s">
-        <v>97</v>
+      <c r="H226" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="8" t="str">
+        <f>B217</f>
+        <v>liquefied petroleum gas production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation</v>
       </c>
       <c r="B227" s="8">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>8</v>
@@ -4108,18 +4123,22 @@
         <v>6</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G227" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="10" t="s">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="G227" s="8" t="str">
+        <f>B217</f>
+        <v>liquefied petroleum gas production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation</v>
+      </c>
+      <c r="H227" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="B228" s="8">
-        <v>0.125</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>8</v>
@@ -4130,852 +4149,800 @@
       <c r="F228" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G228" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G228" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B229" s="8">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C229" s="8" t="s">
-        <v>8</v>
+        <f>3.64160231884058*0.11</f>
+        <v>0.4005762550724638</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G229" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B230" s="8">
+        <f>0.00107549913043478*0.11</f>
+        <v>1.1830490434782582E-4</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B231" s="9">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F231" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B232" s="8">
+        <v>-0.13</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F232" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B233" s="9">
+        <f>0.0872420618556701*0.11</f>
+        <v>9.5966268041237108E-3</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F233" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B236" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A243" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E244" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F244" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G244" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B245" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F245" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G245" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A246" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B246" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F246" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G246" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B247" s="8">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F247" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G247" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B248" s="8">
         <f>60*0.001/106.6</f>
         <v>5.6285178236397749E-4</v>
       </c>
-      <c r="D230" s="8" t="s">
+      <c r="D248" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E230" s="8" t="s">
+      <c r="E248" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F230" s="8" t="s">
+      <c r="F248" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="8" t="s">
+    <row r="249" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B231" s="8">
+      <c r="B249" s="8">
         <v>1</v>
       </c>
-      <c r="C231" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F231" s="8" t="s">
+      <c r="C249" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F249" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G231" s="8" t="s">
+      <c r="G249" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="8" t="s">
+    <row r="250" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B232" s="11">
+      <c r="B250" s="11">
         <v>5.7100000000000004E-6</v>
       </c>
-      <c r="C232" s="8" t="s">
+      <c r="C250" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D232" s="8" t="s">
+      <c r="D250" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F232" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B233" s="11"/>
-    </row>
-    <row r="234" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="6" t="s">
+      <c r="F250" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B251" s="11"/>
+    </row>
+    <row r="252" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A252" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B252" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="8" t="s">
+    <row r="253" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B235" s="8">
+      <c r="B253" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="8" t="s">
+    <row r="254" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B254" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="8" t="s">
+    <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="8" t="s">
+      <c r="B255" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="8" t="s">
+    <row r="256" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B238" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="8" t="s">
+      <c r="B256" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B239" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="8" t="s">
+      <c r="B257" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B240" s="8" t="s">
+      <c r="B258" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="6" t="s">
+    <row r="259" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="8" t="s">
+    <row r="260" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B242" s="8" t="s">
+      <c r="B260" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C242" s="8" t="s">
+      <c r="C260" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D242" s="8" t="s">
+      <c r="D260" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E242" s="8" t="s">
+      <c r="E260" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F242" s="8" t="s">
+      <c r="F260" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G242" s="8" t="s">
+      <c r="G260" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="8" t="s">
+    <row r="261" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B243" s="8">
+      <c r="B261" s="8">
         <v>1</v>
       </c>
-      <c r="C243" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F243" s="8" t="s">
+      <c r="C261" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F261" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G243" s="8" t="s">
+      <c r="G261" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="244" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A244" s="10" t="s">
+    <row r="262" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A262" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B244" s="8">
+      <c r="B262" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C244" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F244" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G244" s="14" t="s">
+      <c r="C262" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F262" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G262" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="245" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="8" t="s">
+    <row r="263" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B245" s="9">
+      <c r="B263" s="9">
         <v>1.9300000000000002E-9</v>
       </c>
-      <c r="C245" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="8" t="s">
+      <c r="C263" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F245" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G245" s="8" t="s">
+      <c r="F263" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G263" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="8" t="s">
+    <row r="264" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B246" s="8">
+      <c r="B264" s="8">
         <v>-1.57</v>
       </c>
-      <c r="D246" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E246" s="8" t="s">
+      <c r="D264" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F246" s="8" t="s">
+      <c r="F264" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H246" s="8" t="s">
+      <c r="H264" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="248" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="1"/>
-    </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="3"/>
-    </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B255" s="3"/>
-    </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="257" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="1"/>
-      <c r="B257" s="2"/>
-    </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="264" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="1"/>
-    </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="267" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="4"/>
-      <c r="G267" s="4"/>
-    </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B271" s="5"/>
-    </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B272" s="5"/>
-    </row>
-    <row r="273" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="1"/>
-      <c r="B273" s="2"/>
-    </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="280" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="1"/>
-    </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="283" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="4"/>
-      <c r="G283" s="4"/>
-    </row>
-    <row r="284" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="4"/>
-      <c r="G284" s="4"/>
-    </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="287" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="1"/>
-      <c r="B287" s="2"/>
-    </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="294" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="1"/>
-    </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B300" s="3"/>
-    </row>
-    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="3"/>
-    </row>
-    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="303" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="1"/>
-      <c r="B303" s="2"/>
-    </row>
-    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="310" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="1"/>
-    </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="313" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="4"/>
-      <c r="G313" s="4"/>
-    </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B317" s="5"/>
-    </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B318" s="5"/>
-    </row>
-    <row r="319" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="1"/>
-      <c r="B319" s="2"/>
-    </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="326" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="1"/>
-    </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="329" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="4"/>
-      <c r="G329" s="4"/>
-    </row>
-    <row r="330" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="4"/>
-      <c r="G330" s="4"/>
-    </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="333" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="1"/>
-      <c r="B333" s="2"/>
-    </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="340" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="1"/>
-    </row>
-    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B346" s="3"/>
-    </row>
-    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B347" s="3"/>
-    </row>
-    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="349" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="1"/>
-      <c r="B349" s="2"/>
-    </row>
-    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="356" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="1"/>
-    </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="359" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="4"/>
-      <c r="G359" s="4"/>
-    </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B363" s="5"/>
-    </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B364" s="5"/>
-    </row>
-    <row r="365" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="1"/>
-      <c r="B365" s="2"/>
-    </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="372" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="1"/>
-    </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="375" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="4"/>
-      <c r="G375" s="4"/>
-    </row>
-    <row r="376" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="4"/>
-      <c r="G376" s="4"/>
-    </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="379" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="1"/>
-      <c r="B379" s="2"/>
-    </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="386" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="1"/>
-    </row>
-    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B392" s="3"/>
-    </row>
-    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B393" s="3"/>
-    </row>
-    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="395" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="1"/>
-      <c r="B395" s="2"/>
-    </row>
-    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="402" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="1"/>
-    </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="405" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="4"/>
-      <c r="G405" s="4"/>
-    </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B409" s="5"/>
-    </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B410" s="5"/>
-    </row>
-    <row r="411" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A411" s="1"/>
-      <c r="B411" s="2"/>
-    </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="418" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A418" s="1"/>
-    </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="421" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="4"/>
-      <c r="G421" s="4"/>
-    </row>
-    <row r="422" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="4"/>
-      <c r="G422" s="4"/>
-    </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="425" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="1"/>
-      <c r="B425" s="2"/>
-    </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="432" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="1"/>
-    </row>
-    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B438" s="3"/>
-    </row>
-    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B439" s="3"/>
-    </row>
-    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="441" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="1"/>
-      <c r="B441" s="2"/>
-    </row>
-    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="448" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="1"/>
-    </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="451" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="4"/>
-      <c r="G451" s="4"/>
-    </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B455" s="5"/>
-    </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="457" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="1"/>
-      <c r="B457" s="2"/>
-    </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="464" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="1"/>
-    </row>
-    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="467" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="4"/>
-      <c r="G467" s="4"/>
-    </row>
-    <row r="468" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="4"/>
-      <c r="G468" s="4"/>
-    </row>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="470" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="1"/>
-      <c r="B470" s="2"/>
-    </row>
-    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="477" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A477" s="1"/>
-    </row>
-    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B483" s="3"/>
-    </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B484" s="3"/>
-    </row>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="486" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A486" s="1"/>
-      <c r="B486" s="2"/>
-    </row>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="493" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="1"/>
-    </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="496" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="4"/>
-      <c r="G496" s="4"/>
-    </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B500" s="5"/>
-    </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B501" s="5"/>
-    </row>
-    <row r="502" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="1"/>
-      <c r="B502" s="2"/>
-    </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="509" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="1"/>
-    </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="512" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A512" s="4"/>
-      <c r="G512" s="4"/>
-    </row>
-    <row r="513" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A513" s="4"/>
-      <c r="G513" s="4"/>
-    </row>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="516" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A516" s="1"/>
-      <c r="B516" s="2"/>
-    </row>
-    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="523" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A523" s="1"/>
-    </row>
-    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B529" s="3"/>
-    </row>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B530" s="3"/>
-    </row>
-    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="532" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="1"/>
-      <c r="B532" s="2"/>
-    </row>
-    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="539" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A539" s="1"/>
-    </row>
-    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="542" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A542" s="4"/>
-      <c r="G542" s="4"/>
-    </row>
-    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B546" s="5"/>
-    </row>
-    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="548" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A548" s="1"/>
-      <c r="B548" s="2"/>
-    </row>
-    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="555" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A555" s="1"/>
-    </row>
-    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="558" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A558" s="4"/>
-      <c r="G558" s="4"/>
-    </row>
-    <row r="559" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A559" s="4"/>
-      <c r="G559" s="4"/>
-    </row>
-    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="561" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="1"/>
-      <c r="B561" s="2"/>
-    </row>
-    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="567" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A567" s="1"/>
-    </row>
-    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="572" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A572" s="1"/>
-      <c r="B572" s="2"/>
-    </row>
-    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="577" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="578" spans="1:1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A578" s="1"/>
+    <row r="266" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A266" s="1"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B272" s="3"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B273" s="3"/>
+    </row>
+    <row r="275" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A275" s="1"/>
+      <c r="B275" s="2"/>
+    </row>
+    <row r="282" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A282" s="1"/>
+    </row>
+    <row r="285" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A285" s="4"/>
+      <c r="G285" s="4"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B289" s="5"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B290" s="5"/>
+    </row>
+    <row r="291" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A291" s="1"/>
+      <c r="B291" s="2"/>
+    </row>
+    <row r="298" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A298" s="1"/>
+    </row>
+    <row r="301" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A301" s="4"/>
+      <c r="G301" s="4"/>
+    </row>
+    <row r="302" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A302" s="4"/>
+      <c r="G302" s="4"/>
+    </row>
+    <row r="305" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A305" s="1"/>
+      <c r="B305" s="2"/>
+    </row>
+    <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A312" s="1"/>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B318" s="3"/>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B319" s="3"/>
+    </row>
+    <row r="321" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A321" s="1"/>
+      <c r="B321" s="2"/>
+    </row>
+    <row r="328" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A328" s="1"/>
+    </row>
+    <row r="331" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A331" s="4"/>
+      <c r="G331" s="4"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B335" s="5"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B336" s="5"/>
+    </row>
+    <row r="337" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A337" s="1"/>
+      <c r="B337" s="2"/>
+    </row>
+    <row r="344" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A344" s="1"/>
+    </row>
+    <row r="347" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A347" s="4"/>
+      <c r="G347" s="4"/>
+    </row>
+    <row r="348" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A348" s="4"/>
+      <c r="G348" s="4"/>
+    </row>
+    <row r="351" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A351" s="1"/>
+      <c r="B351" s="2"/>
+    </row>
+    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A358" s="1"/>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B364" s="3"/>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B365" s="3"/>
+    </row>
+    <row r="367" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A367" s="1"/>
+      <c r="B367" s="2"/>
+    </row>
+    <row r="374" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A374" s="1"/>
+    </row>
+    <row r="377" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A377" s="4"/>
+      <c r="G377" s="4"/>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B381" s="5"/>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B382" s="5"/>
+    </row>
+    <row r="383" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A383" s="1"/>
+      <c r="B383" s="2"/>
+    </row>
+    <row r="390" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A390" s="1"/>
+    </row>
+    <row r="393" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A393" s="4"/>
+      <c r="G393" s="4"/>
+    </row>
+    <row r="394" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A394" s="4"/>
+      <c r="G394" s="4"/>
+    </row>
+    <row r="397" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A397" s="1"/>
+      <c r="B397" s="2"/>
+    </row>
+    <row r="404" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A404" s="1"/>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B410" s="3"/>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B411" s="3"/>
+    </row>
+    <row r="413" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A413" s="1"/>
+      <c r="B413" s="2"/>
+    </row>
+    <row r="420" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A420" s="1"/>
+    </row>
+    <row r="423" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A423" s="4"/>
+      <c r="G423" s="4"/>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B427" s="5"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B428" s="5"/>
+    </row>
+    <row r="429" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A429" s="1"/>
+      <c r="B429" s="2"/>
+    </row>
+    <row r="436" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A436" s="1"/>
+    </row>
+    <row r="439" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A439" s="4"/>
+      <c r="G439" s="4"/>
+    </row>
+    <row r="440" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A440" s="4"/>
+      <c r="G440" s="4"/>
+    </row>
+    <row r="443" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A443" s="1"/>
+      <c r="B443" s="2"/>
+    </row>
+    <row r="450" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A450" s="1"/>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B456" s="3"/>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B457" s="3"/>
+    </row>
+    <row r="459" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A459" s="1"/>
+      <c r="B459" s="2"/>
+    </row>
+    <row r="466" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A466" s="1"/>
+    </row>
+    <row r="469" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A469" s="4"/>
+      <c r="G469" s="4"/>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B473" s="5"/>
+    </row>
+    <row r="475" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A475" s="1"/>
+      <c r="B475" s="2"/>
+    </row>
+    <row r="482" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A482" s="1"/>
+    </row>
+    <row r="485" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A485" s="4"/>
+      <c r="G485" s="4"/>
+    </row>
+    <row r="486" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A486" s="4"/>
+      <c r="G486" s="4"/>
+    </row>
+    <row r="488" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A488" s="1"/>
+      <c r="B488" s="2"/>
+    </row>
+    <row r="495" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A495" s="1"/>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B501" s="3"/>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B502" s="3"/>
+    </row>
+    <row r="504" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A504" s="1"/>
+      <c r="B504" s="2"/>
+    </row>
+    <row r="511" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A511" s="1"/>
+    </row>
+    <row r="514" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A514" s="4"/>
+      <c r="G514" s="4"/>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B518" s="5"/>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B519" s="5"/>
+    </row>
+    <row r="520" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A520" s="1"/>
+      <c r="B520" s="2"/>
+    </row>
+    <row r="527" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A527" s="1"/>
+    </row>
+    <row r="530" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A530" s="4"/>
+      <c r="G530" s="4"/>
+    </row>
+    <row r="531" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A531" s="4"/>
+      <c r="G531" s="4"/>
+    </row>
+    <row r="534" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A534" s="1"/>
+      <c r="B534" s="2"/>
+    </row>
+    <row r="541" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A541" s="1"/>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B547" s="3"/>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B548" s="3"/>
+    </row>
+    <row r="550" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A550" s="1"/>
+      <c r="B550" s="2"/>
+    </row>
+    <row r="557" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A557" s="1"/>
+    </row>
+    <row r="560" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A560" s="4"/>
+      <c r="G560" s="4"/>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B564" s="5"/>
+    </row>
+    <row r="566" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A566" s="1"/>
+      <c r="B566" s="2"/>
+    </row>
+    <row r="573" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A573" s="1"/>
+    </row>
+    <row r="576" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A576" s="4"/>
+      <c r="G576" s="4"/>
+    </row>
+    <row r="577" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A577" s="4"/>
+      <c r="G577" s="4"/>
+    </row>
+    <row r="579" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A579" s="1"/>
+      <c r="B579" s="2"/>
+    </row>
+    <row r="585" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A585" s="1"/>
+    </row>
+    <row r="590" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A590" s="1"/>
+      <c r="B590" s="2"/>
+    </row>
+    <row r="596" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A596" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K578" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Activity"/>
-        <filter val="Carbon dioxide, in air"/>
-        <filter val="Carbon dioxide, non-fossil"/>
-        <filter val="Carbon monoxide, from RWGS, for Fischer Tropsch process, hydrogen from wood gasification"/>
-        <filter val="Diesel production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, economic allocation"/>
-        <filter val="Diesel production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation"/>
-        <filter val="diesel production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, economic allocation, at fuelling station"/>
-        <filter val="diesel production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, energy allocation, at fuelling station"/>
-        <filter val="Fixed bed reactor for RWGS"/>
-        <filter val="Gas-to-liquid plant construction"/>
-        <filter val="Heat, waste"/>
-        <filter val="hydrogen production, gaseous, 25 bar, from gasification of woody biomass in entrained flow gasifier, at gasification plant"/>
-        <filter val="infrastructure construction, for regional distribution of oil product"/>
-        <filter val="Kerosene production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, economic allocation"/>
-        <filter val="Kerosene production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation"/>
-        <filter val="kerosene production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, economic allocation, at fuelling station"/>
-        <filter val="kerosene production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, energy allocation, at fuelling station"/>
-        <filter val="Lubricating oil production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation"/>
-        <filter val="market for fly ash and scrubber sludge"/>
-        <filter val="market for heat, central or small-scale, other than natural gas"/>
-        <filter val="market for municipal solid waste"/>
-        <filter val="market for rainwater mineral oil storage"/>
-        <filter val="market for tap water"/>
-        <filter val="market for transport, freight train"/>
-        <filter val="market for transport, freight, lorry, unspecified"/>
-        <filter val="market group for electricity, low voltage"/>
-        <filter val="name"/>
-        <filter val="Naphtha production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, economic allocation"/>
-        <filter val="Naphtha production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation"/>
-        <filter val="production amount"/>
-        <filter val="reference product"/>
-        <filter val="RWGS tank construction"/>
-        <filter val="Syngas, RWGS, Production, for Fischer Tropsch process, hydrogen from wood gasification"/>
-        <filter val="treatment of wastewater, average, capacity 1E9l/year"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K596" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
